--- a/biology/Zoologie/Roberto_Dabbene/Roberto_Dabbene.xlsx
+++ b/biology/Zoologie/Roberto_Dabbene/Roberto_Dabbene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roberto Dabbene est un ornithologue italo-argentin, né en 1864 à Turin et mort en 1938.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient un titre de docteur en 1884 à l’université de Gênes et émigre en Argentine en 1887. Après avoir enseigné la chimie à l’Universidad Nacional de Córdoba, il s’installe à Buenos Aires en 1890 où il travaille pour le zoo de la ville. Durant quarante ans, il étudie les oiseaux argentins et fait paraître de nombreuses publications.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>"Contribución a la ornitología del Paraguay", Anales del Museo Nacional de Buenos Aires 23 : 283-390 (1912)
 "Notas sobre una colección de Avesde la Isla Martín García", El Hornero 1 (1917). (1) : 29-34 ; (2): 89-96; (3) : 160-168; (4): 236-248.
@@ -578,7 +594,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Roberto Dabbene » (voir la liste des auteurs).</t>
         </is>
